--- a/Data/Industry Job Openings.xlsx
+++ b/Data/Industry Job Openings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zrgra\Documents\NSS_Data_Analytics\Projects\COVID-service-industry\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7A893-A699-4023-B867-FA9EE1FC8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1CE42-E277-43E3-8380-9B4CC74D0509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{0179B7E7-8672-4E3F-AE69-5A2EF2200883}"/>
   </bookViews>
@@ -205,11 +205,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Information!$A$12</c:f>
+              <c:f>Information!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -270,52 +270,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Information!$B$12:$M$12</c:f>
+              <c:f>Information!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>121</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82BC-45E9-BE0D-7BDFA96A9D10}"/>
+              <c16:uniqueId val="{00000000-1FEF-4C72-9E78-BAADC3439848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -324,11 +324,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Information!$A$13</c:f>
+              <c:f>Information!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,6 +389,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Information!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FEF-4C72-9E78-BAADC3439848}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Information!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Information!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Information!$B$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -410,7 +529,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82BC-45E9-BE0D-7BDFA96A9D10}"/>
+              <c16:uniqueId val="{00000002-1FEF-4C72-9E78-BAADC3439848}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -424,11 +543,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="369261504"/>
-        <c:axId val="369262752"/>
+        <c:axId val="1326590223"/>
+        <c:axId val="1326585231"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="369261504"/>
+        <c:axId val="1326590223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369262752"/>
+        <c:crossAx val="1326585231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="369262752"/>
+        <c:axId val="1326585231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369261504"/>
+        <c:crossAx val="1326590223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -666,11 +785,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Construction!$A$12</c:f>
+              <c:f>Construction!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -731,52 +850,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Construction!$B$12:$M$12</c:f>
+              <c:f>Construction!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>283</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>290</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>238</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>240</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>325</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>271</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>221</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>231</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE8F-4A1A-A94D-DF8650BD94C8}"/>
+              <c16:uniqueId val="{00000000-6687-47E3-B977-3218B2322CAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -785,11 +904,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Construction!$A$13</c:f>
+              <c:f>Construction!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,6 +969,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Construction!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6687-47E3-B977-3218B2322CAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Construction!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Construction!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Construction!$B$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -871,7 +1109,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE8F-4A1A-A94D-DF8650BD94C8}"/>
+              <c16:uniqueId val="{00000002-6687-47E3-B977-3218B2322CAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -885,11 +1123,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1534384367"/>
-        <c:axId val="1534381039"/>
+        <c:axId val="1482330927"/>
+        <c:axId val="1482344239"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1534384367"/>
+        <c:axId val="1482330927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534381039"/>
+        <c:crossAx val="1482344239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1534381039"/>
+        <c:axId val="1482344239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1534384367"/>
+        <c:crossAx val="1482330927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1127,11 +1365,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Manufacturing!$A$12</c:f>
+              <c:f>Manufacturing!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1192,52 +1430,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Manufacturing!$B$12:$M$12</c:f>
+              <c:f>Manufacturing!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>406</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>302</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>295</c:v>
+                  <c:v>477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>352</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>436</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>486</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>494</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>540</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>490</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D16B-4E3B-BA05-9A53D1D43B3F}"/>
+              <c16:uniqueId val="{00000000-A4ED-4235-9054-29029C568EAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1246,11 +1484,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Manufacturing!$A$13</c:f>
+              <c:f>Manufacturing!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1311,6 +1549,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Manufacturing!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4ED-4235-9054-29029C568EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Manufacturing!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Manufacturing!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Manufacturing!$B$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1332,7 +1689,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D16B-4E3B-BA05-9A53D1D43B3F}"/>
+              <c16:uniqueId val="{00000002-A4ED-4235-9054-29029C568EAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,11 +1703,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2113381951"/>
-        <c:axId val="2113384447"/>
+        <c:axId val="1482692063"/>
+        <c:axId val="1482692479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2113381951"/>
+        <c:axId val="1482692063"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113384447"/>
+        <c:crossAx val="1482692479"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113384447"/>
+        <c:axId val="1482692479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,7 +1809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113381951"/>
+        <c:crossAx val="1482692063"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1586,9 +1943,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>2020</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1601,6 +1955,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Education and Health Services'!$A$1:$M$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Education and Health Services'!$A$2:$M$2</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Education and Health Services'!$A$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
@@ -1648,64 +2012,61 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Education and Health Services'!$A$12:$M$12</c:f>
+              <c:f>'Education and Health Services'!$A$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433</c:v>
+                  <c:v>1453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1216</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1125</c:v>
+                  <c:v>1341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1106</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>924</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1015</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1272</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1166</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1161</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1434</c:v>
+                  <c:v>1324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1261</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1190</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9350-456B-B441-8ADB71A98202}"/>
+              <c16:uniqueId val="{00000000-9065-4C3F-87F2-91B85EEC524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>2021</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1718,6 +2079,140 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Education and Health Services'!$A$1:$M$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Education and Health Services'!$A$2:$M$2</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Education and Health Services'!$A$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Education and Health Services'!$A$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1272</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9065-4C3F-87F2-91B85EEC524B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Education and Health Services'!$A$1:$M$2</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Education and Health Services'!$A$2:$M$2</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Education and Health Services'!$A$2:$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
@@ -1789,7 +2284,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9350-456B-B441-8ADB71A98202}"/>
+              <c16:uniqueId val="{00000002-9065-4C3F-87F2-91B85EEC524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1803,11 +2298,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="233602879"/>
-        <c:axId val="233604959"/>
+        <c:axId val="1480544543"/>
+        <c:axId val="1480544959"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="233602879"/>
+        <c:axId val="1480544543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,7 +2345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233604959"/>
+        <c:crossAx val="1480544959"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1858,7 +2353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233604959"/>
+        <c:axId val="1480544959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +2404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233602879"/>
+        <c:crossAx val="1480544543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,13 +2449,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2052,11 +2540,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Hospitality and Leisure'!$A$12</c:f>
+              <c:f>'Hospitality and Leisure'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2117,52 +2605,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hospitality and Leisure'!$B$12:$M$12</c:f>
+              <c:f>'Hospitality and Leisure'!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>706</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>787</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>542</c:v>
+                  <c:v>946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>661</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>818</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>830</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>757</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>763</c:v>
+                  <c:v>861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>770</c:v>
+                  <c:v>815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>715</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>533</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6179-4EDC-B55A-AB28232B3C85}"/>
+              <c16:uniqueId val="{00000000-1C3A-41DD-A855-5B1FF2A5A854}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2171,11 +2659,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Hospitality and Leisure'!$A$13</c:f>
+              <c:f>'Hospitality and Leisure'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2236,6 +2724,125 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Hospitality and Leisure'!$B$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C3A-41DD-A855-5B1FF2A5A854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hospitality and Leisure'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hospitality and Leisure'!$B$1:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'Hospitality and Leisure'!$B$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2257,7 +2864,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6179-4EDC-B55A-AB28232B3C85}"/>
+              <c16:uniqueId val="{00000002-1C3A-41DD-A855-5B1FF2A5A854}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2271,11 +2878,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="249205935"/>
-        <c:axId val="249203439"/>
+        <c:axId val="1484680719"/>
+        <c:axId val="1484681967"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="249205935"/>
+        <c:axId val="1484680719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249203439"/>
+        <c:crossAx val="1484681967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249203439"/>
+        <c:axId val="1484681967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249205935"/>
+        <c:crossAx val="1484680719"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5178,21 +5785,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08D0EBB-796F-4B71-9DC6-A77F02D041B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639DA60A-CF41-4F18-BD26-5513E96AA851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5219,21 +5826,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067CDAA7-99AD-4F87-958C-62E6B0E287E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EABD924-9FF7-439A-8518-687DB91DC6EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,21 +5867,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC5FED5-9A23-46A0-A24B-72149F4DE538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A840E2-629E-44AD-A43E-581644A2D0D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5300,22 +5907,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33F27F8-60C4-4887-A738-F118BEA436A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3637E63-2139-402E-82DE-6C843B62FD92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5343,20 +5950,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF2DA1D-47AC-4F41-ADC3-C6866F1A0436}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74736FA3-F057-44E2-8EDB-E860B9F83821}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,8 +6283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169C3BE4-4B34-44AC-AB25-650D0C122C7A}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A1:M2 A12:M13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6166,8 +6773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08522EE1-E871-4C47-9FE8-B81B7B089C72}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A1:M2 A12:M13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A1:M2 A11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6659,7 +7266,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" activeCellId="1" sqref="A1:M2 A12:M13"/>
+      <selection activeCell="A11" activeCellId="1" sqref="A1:M2 A11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7147,8 +7754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691E04A2-8FBA-4121-B9AD-3540CAF18F58}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A12:M13 A2:M2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A1:M2 A11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7636,8 +8243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D89BEDC-2906-4C4B-9CDF-B38F29D7B63B}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="2" sqref="A1:M2 A12:M12 A13:M13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A1:M2 A11:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
